--- a/Excel/Data/Városfejlesztési_projektek.xlsx
+++ b/Excel/Data/Városfejlesztési_projektek.xlsx
@@ -39,22 +39,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE0E0E0" tint="0"/>
+      <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE0E0E0" tint="0"/>
+      <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE0E0E0" tint="0"/>
+      <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFE0E0E0" tint="0"/>
+      <color rgb="FF000000" tint="0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -78,27 +78,27 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF202020"/>
-        <bgColor rgb="FF202020"/>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF202020"/>
-        <bgColor rgb="FF202020"/>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF202020"/>
-        <bgColor rgb="FF202020"/>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF202020"/>
-        <bgColor rgb="FF202020"/>
+      <patternFill patternType="none">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -496,7 +496,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -506,7 +506,7 @@
   <cols>
     <col customWidth="true" min="1" max="1" width="19.3359375"/>
     <col customWidth="true" min="2" max="2" width="31.19921875"/>
-    <col customWidth="true" min="3" max="3" width="14.0625"/>
+    <col customWidth="true" min="3" max="3" width="13.8359375"/>
     <col customWidth="true" min="4" max="4" width="25.92578125"/>
     <col customWidth="true" min="5" max="5" width="31.78515625"/>
   </cols>
@@ -595,6 +595,44 @@
         <v>45890</v>
       </c>
     </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="4">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Csatornahálózat korszerűsítése</t>
+        </is>
+      </c>
+      <c r="C5" s="4">
+        <v>15000000</v>
+      </c>
+      <c r="D5" s="6">
+        <v>45778</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45807</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="4">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Tömegközlekedés fejlesztése</t>
+        </is>
+      </c>
+      <c r="C6" s="4">
+        <v>80000000</v>
+      </c>
+      <c r="D6" s="6">
+        <v>45778</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45899</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
